--- a/XuMiuDuTing/RabiConfig/xlsx/Sfx.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sfx.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yufulao\Desktop\YuFramework\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4AD7D0-B3B6-4492-9BAB-73F22761AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068726D4-A734-43E9-8824-B29BBE0195A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
-    <sheet name="Sfx" sheetId="1" r:id="rId2"/>
+    <sheet name="SFX" sheetId="1" r:id="rId2"/>
+    <sheet name="SFXType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>string</t>
   </si>
@@ -30,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sfx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,14 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>audioClipPaths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfx名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +68,69 @@
   </si>
   <si>
     <t>是否循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFXType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFXType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clipPaths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Annotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,17 +460,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -430,69 +487,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="91.625" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -501,4 +567,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBFA2BD-52E9-4AC2-91B8-082F0AADDFBD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XuMiuDuTing/RabiConfig/xlsx/Sfx.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sfx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068726D4-A734-43E9-8824-B29BBE0195A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6FB5D2-A9EF-4C30-8DCE-55C757FD106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>string</t>
   </si>
@@ -131,6 +131,67 @@
   </si>
   <si>
     <t>说话音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/攻击1.mp3,Assets/AddressableAssets/SFX/dog语音/攻击2.mp3,Assets/AddressableAssets/SFX/dog语音/攻击3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/dog语音/技能1.mp3,Assets/AddressableAssets/SFX/dog语音/技能2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/系统音效/error不可用.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/系统音效/上一章下一章.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/系统音效/战斗系统点击音.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/系统音效/设置暂停.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error不可用</t>
+  </si>
+  <si>
+    <t>上一章下一章</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/系统音效/选中.MP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/系统音效/通用点击音1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用点击音1</t>
+  </si>
+  <si>
+    <t>选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗系统点击音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,6 +623,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBFA2BD-52E9-4AC2-91B8-082F0AADDFBD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/Sfx.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sfx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6FB5D2-A9EF-4C30-8DCE-55C757FD106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB5077-7370-44A2-81E0-1A79CA37C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>string</t>
   </si>
@@ -193,6 +193,45 @@
   <si>
     <t>战斗系统点击音</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚步声三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/脚步声三.WAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/跑步.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摔倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/摔倒.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽约环境音_循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步_循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/循环音效/纽约环境音_循环.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/SFX/循环音效/跑步_循环.wav</t>
   </si>
 </sst>
 </file>
@@ -548,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,6 +820,106 @@
       </c>
       <c r="F11" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
